--- a/uploadFile/excels/广西规模以上服务业企业复工情况表.xlsx
+++ b/uploadFile/excels/广西规模以上服务业企业复工情况表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11800"/>
+    <workbookView windowWidth="28800" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋_GB2312"/>
+        <charset val="134"/>
+      </rPr>
       <t>截至</t>
     </r>
     <r>
@@ -140,16 +147,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,115 +246,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,49 +299,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,127 +461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +548,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -552,6 +568,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,21 +600,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -621,20 +631,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,148 +650,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,7 +1142,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
